--- a/data/pca/factorExposure/factorExposure_2016-11-09.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-11-09.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01790654382132528</v>
+        <v>0.01614861235962905</v>
       </c>
       <c r="C2">
-        <v>0.04611795922318661</v>
+        <v>-0.04183519455116713</v>
       </c>
       <c r="D2">
-        <v>-0.02680366973101403</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.05866972010662743</v>
+      </c>
+      <c r="E2">
+        <v>0.01864361806824762</v>
+      </c>
+      <c r="F2">
+        <v>0.09325172056683602</v>
+      </c>
+      <c r="G2">
+        <v>0.02926105960013856</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.05622949946171774</v>
+        <v>0.03430157118783661</v>
       </c>
       <c r="C3">
-        <v>0.09939945088553327</v>
+        <v>-0.084629472226594</v>
       </c>
       <c r="D3">
-        <v>-0.04262791021511693</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.09945460427909855</v>
+      </c>
+      <c r="E3">
+        <v>0.02147519157607803</v>
+      </c>
+      <c r="F3">
+        <v>0.06888957516535832</v>
+      </c>
+      <c r="G3">
+        <v>-0.06656083394463025</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06232942258227221</v>
+        <v>0.05944985342961698</v>
       </c>
       <c r="C4">
-        <v>0.06427913560213912</v>
+        <v>-0.06002474151165493</v>
       </c>
       <c r="D4">
-        <v>-0.01158298846059995</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.05726310330363834</v>
+      </c>
+      <c r="E4">
+        <v>0.01413875552392476</v>
+      </c>
+      <c r="F4">
+        <v>0.09384407699041263</v>
+      </c>
+      <c r="G4">
+        <v>-0.03928389077515995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.02772597979746561</v>
+        <v>0.03584579703401837</v>
       </c>
       <c r="C6">
-        <v>0.04635434271285497</v>
+        <v>-0.03645480934783472</v>
       </c>
       <c r="D6">
-        <v>-0.01116350040861621</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.0641912276028999</v>
+      </c>
+      <c r="E6">
+        <v>0.01815644600888973</v>
+      </c>
+      <c r="F6">
+        <v>0.08851038744237764</v>
+      </c>
+      <c r="G6">
+        <v>-0.01928545524156804</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02382453820651141</v>
+        <v>0.02224474457184449</v>
       </c>
       <c r="C7">
-        <v>0.04090782657965898</v>
+        <v>-0.03397121697664583</v>
       </c>
       <c r="D7">
-        <v>0.01067160588901371</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.03089208309906488</v>
+      </c>
+      <c r="E7">
+        <v>0.001656039344358393</v>
+      </c>
+      <c r="F7">
+        <v>0.1213061254165094</v>
+      </c>
+      <c r="G7">
+        <v>-0.004907738845324875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.000723048421183448</v>
+        <v>0.005897739208850243</v>
       </c>
       <c r="C8">
-        <v>0.01318439451540981</v>
+        <v>-0.02064788103731153</v>
       </c>
       <c r="D8">
-        <v>-0.01672393724108997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03653152492781474</v>
+      </c>
+      <c r="E8">
+        <v>0.01214878276221855</v>
+      </c>
+      <c r="F8">
+        <v>0.06465624196081876</v>
+      </c>
+      <c r="G8">
+        <v>-0.00951675128537708</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.02800428257015693</v>
+        <v>0.03758198927327075</v>
       </c>
       <c r="C9">
-        <v>0.0439971098174456</v>
+        <v>-0.0474780013650991</v>
       </c>
       <c r="D9">
-        <v>-0.004346001487527057</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.04053446372951995</v>
+      </c>
+      <c r="E9">
+        <v>0.009784492643069997</v>
+      </c>
+      <c r="F9">
+        <v>0.09874743527984255</v>
+      </c>
+      <c r="G9">
+        <v>-0.022320022770499</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.07808857102864601</v>
+        <v>0.09317293811195695</v>
       </c>
       <c r="C10">
-        <v>-0.194981618628447</v>
+        <v>0.1912864667412493</v>
       </c>
       <c r="D10">
-        <v>-0.01828993819618743</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.005672836935592908</v>
+      </c>
+      <c r="E10">
+        <v>0.03703997275314224</v>
+      </c>
+      <c r="F10">
+        <v>0.04575779820268863</v>
+      </c>
+      <c r="G10">
+        <v>-0.004537543756155097</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04233687157516863</v>
+        <v>0.03776965559546037</v>
       </c>
       <c r="C11">
-        <v>0.05398685323768675</v>
+        <v>-0.04974899559071261</v>
       </c>
       <c r="D11">
-        <v>0.005134184002032002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.02752755706372002</v>
+      </c>
+      <c r="E11">
+        <v>-0.01299939249906216</v>
+      </c>
+      <c r="F11">
+        <v>0.06953000710076827</v>
+      </c>
+      <c r="G11">
+        <v>-0.0128090817536907</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.03606617312852847</v>
+        <v>0.03819292888131846</v>
       </c>
       <c r="C12">
-        <v>0.04532134402046515</v>
+        <v>-0.04545050649954247</v>
       </c>
       <c r="D12">
-        <v>0.00501915552294262</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.02169802146668024</v>
+      </c>
+      <c r="E12">
+        <v>-0.004155610435805183</v>
+      </c>
+      <c r="F12">
+        <v>0.07108313216433307</v>
+      </c>
+      <c r="G12">
+        <v>-0.008625790803038453</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01145950884279154</v>
+        <v>0.01435275815361626</v>
       </c>
       <c r="C13">
-        <v>0.04355384846234024</v>
+        <v>-0.04138809873085222</v>
       </c>
       <c r="D13">
-        <v>-0.02577752259504517</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.06630556110295073</v>
+      </c>
+      <c r="E13">
+        <v>0.02757355402340125</v>
+      </c>
+      <c r="F13">
+        <v>0.129726163753549</v>
+      </c>
+      <c r="G13">
+        <v>-0.01858104534064292</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.005850976709949269</v>
+        <v>0.007179448675893425</v>
       </c>
       <c r="C14">
-        <v>0.03270129503436005</v>
+        <v>-0.02667511639687626</v>
       </c>
       <c r="D14">
-        <v>0.01139279421522724</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.02694052296082975</v>
+      </c>
+      <c r="E14">
+        <v>0.005045222527134421</v>
+      </c>
+      <c r="F14">
+        <v>0.1023776041143934</v>
+      </c>
+      <c r="G14">
+        <v>0.009534569047791534</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.001408805192726092</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>-0.001346368788235721</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.001631835814379701</v>
+      </c>
+      <c r="E15">
+        <v>-0.001334296166827215</v>
+      </c>
+      <c r="F15">
+        <v>0.000184301578448645</v>
+      </c>
+      <c r="G15">
+        <v>0.0008237732828625042</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.03528552191768256</v>
+        <v>0.03478277681084426</v>
       </c>
       <c r="C16">
-        <v>0.04030083754486229</v>
+        <v>-0.0435837459864131</v>
       </c>
       <c r="D16">
-        <v>-0.002647262513373974</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.02585619047680365</v>
+      </c>
+      <c r="E16">
+        <v>0.001841528305816578</v>
+      </c>
+      <c r="F16">
+        <v>0.07454428046882218</v>
+      </c>
+      <c r="G16">
+        <v>0.001295110743093639</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.03082192024356569</v>
+        <v>0.01921177001615385</v>
       </c>
       <c r="C19">
-        <v>0.06344116336696157</v>
+        <v>-0.0506108342539253</v>
       </c>
       <c r="D19">
-        <v>-0.04899144844943151</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1052663164967751</v>
+      </c>
+      <c r="E19">
+        <v>0.03246702042477721</v>
+      </c>
+      <c r="F19">
+        <v>0.1291466757717716</v>
+      </c>
+      <c r="G19">
+        <v>0.01750216366911555</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01490107181869912</v>
+        <v>0.01519519155584307</v>
       </c>
       <c r="C20">
-        <v>0.04418723747833212</v>
+        <v>-0.03847517060819202</v>
       </c>
       <c r="D20">
-        <v>-0.02637833816124402</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.04817791075749313</v>
+      </c>
+      <c r="E20">
+        <v>0.03514947480282041</v>
+      </c>
+      <c r="F20">
+        <v>0.1004792501822492</v>
+      </c>
+      <c r="G20">
+        <v>-0.002015996564234552</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.006148929347790258</v>
+        <v>0.008847395880854638</v>
       </c>
       <c r="C21">
-        <v>0.04591744366639264</v>
+        <v>-0.04218026947762116</v>
       </c>
       <c r="D21">
-        <v>-0.03615396170731242</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.0694896441831218</v>
+      </c>
+      <c r="E21">
+        <v>0.02770366640625504</v>
+      </c>
+      <c r="F21">
+        <v>0.1451345910677198</v>
+      </c>
+      <c r="G21">
+        <v>-0.0004679877478033033</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.003714688025961517</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.01463476674169233</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.02890921986433938</v>
+      </c>
+      <c r="E22">
+        <v>0.0003982650300564736</v>
+      </c>
+      <c r="F22">
+        <v>0.01782483081038345</v>
+      </c>
+      <c r="G22">
+        <v>-0.03498515368271601</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.003768646072067147</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.01458667224955594</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.02865400389972556</v>
+      </c>
+      <c r="E23">
+        <v>0.0007107816358093415</v>
+      </c>
+      <c r="F23">
+        <v>0.01755974533285485</v>
+      </c>
+      <c r="G23">
+        <v>-0.03498379619790314</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.0299300094568569</v>
+        <v>0.03342763368202615</v>
       </c>
       <c r="C24">
-        <v>0.04636030188295046</v>
+        <v>-0.05034864908659838</v>
       </c>
       <c r="D24">
-        <v>0.0067662937123066</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.02292611180628565</v>
+      </c>
+      <c r="E24">
+        <v>-0.003398407538621871</v>
+      </c>
+      <c r="F24">
+        <v>0.07988536482132837</v>
+      </c>
+      <c r="G24">
+        <v>-0.005337847010182664</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.0465430951159094</v>
+        <v>0.04355747039851005</v>
       </c>
       <c r="C25">
-        <v>0.0575368403044829</v>
+        <v>-0.05666788937350038</v>
       </c>
       <c r="D25">
-        <v>0.01661481876885214</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.01969544217491339</v>
+      </c>
+      <c r="E25">
+        <v>-0.007180487569862887</v>
+      </c>
+      <c r="F25">
+        <v>0.08192492110065114</v>
+      </c>
+      <c r="G25">
+        <v>-0.02141702137023616</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.008279724033927023</v>
+        <v>0.014654073007562</v>
       </c>
       <c r="C26">
-        <v>0.01569829255045659</v>
+        <v>-0.01387876979331747</v>
       </c>
       <c r="D26">
-        <v>-0.005063096403329474</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02092047869427593</v>
+      </c>
+      <c r="E26">
+        <v>0.007392637406569637</v>
+      </c>
+      <c r="F26">
+        <v>0.08148790366372866</v>
+      </c>
+      <c r="G26">
+        <v>0.01535453358140892</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.09221180117982052</v>
+        <v>0.1257894071482393</v>
       </c>
       <c r="C28">
-        <v>-0.2233927497091429</v>
+        <v>0.2433707205758676</v>
       </c>
       <c r="D28">
-        <v>-0.01182798420100368</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.01326145329113862</v>
+      </c>
+      <c r="E28">
+        <v>0.03940892399159766</v>
+      </c>
+      <c r="F28">
+        <v>0.0600124216048044</v>
+      </c>
+      <c r="G28">
+        <v>-0.01468637798943085</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.01093692768709976</v>
+        <v>0.008068149776235585</v>
       </c>
       <c r="C29">
-        <v>0.025365847488122</v>
+        <v>-0.02356242784303668</v>
       </c>
       <c r="D29">
-        <v>0.01087310920840932</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01766808882084726</v>
+      </c>
+      <c r="E29">
+        <v>0.009309712707042967</v>
+      </c>
+      <c r="F29">
+        <v>0.0936123203063656</v>
+      </c>
+      <c r="G29">
+        <v>-0.003006652157349608</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04221404650810204</v>
+        <v>0.03961175448385737</v>
       </c>
       <c r="C30">
-        <v>0.07027779913500971</v>
+        <v>-0.05983403448228505</v>
       </c>
       <c r="D30">
-        <v>-0.006012284182923437</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.09599752161988888</v>
+      </c>
+      <c r="E30">
+        <v>-0.01381248966297384</v>
+      </c>
+      <c r="F30">
+        <v>0.1134618936854552</v>
+      </c>
+      <c r="G30">
+        <v>0.01889648250521768</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.04222374896459642</v>
+        <v>0.05741297853122371</v>
       </c>
       <c r="C31">
-        <v>0.03235188658276899</v>
+        <v>-0.04413584697387749</v>
       </c>
       <c r="D31">
-        <v>0.00446740619785399</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.0004491163992309474</v>
+      </c>
+      <c r="E31">
+        <v>0.03388469849693059</v>
+      </c>
+      <c r="F31">
+        <v>0.09135375396196602</v>
+      </c>
+      <c r="G31">
+        <v>-0.04124073382980502</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.007618196735525763</v>
+        <v>0.003810960702681811</v>
       </c>
       <c r="C32">
-        <v>0.03993049166510845</v>
+        <v>-0.03175434550702956</v>
       </c>
       <c r="D32">
-        <v>-0.01958897497113427</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.04899941013042313</v>
+      </c>
+      <c r="E32">
+        <v>-0.003758865076634082</v>
+      </c>
+      <c r="F32">
+        <v>0.07196161460010304</v>
+      </c>
+      <c r="G32">
+        <v>0.01027337476003683</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.02956924534042947</v>
+        <v>0.02633680070447358</v>
       </c>
       <c r="C33">
-        <v>0.06215398368288497</v>
+        <v>-0.05145626942172511</v>
       </c>
       <c r="D33">
-        <v>-0.01717830514998114</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.07727885863658025</v>
+      </c>
+      <c r="E33">
+        <v>0.007327670378985894</v>
+      </c>
+      <c r="F33">
+        <v>0.1426645992397431</v>
+      </c>
+      <c r="G33">
+        <v>-0.01851602315269081</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.05229794676896252</v>
+        <v>0.04337236946628821</v>
       </c>
       <c r="C34">
-        <v>0.05541155427889465</v>
+        <v>-0.06168712149021571</v>
       </c>
       <c r="D34">
-        <v>0.01226431195360875</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.02691311580294108</v>
+      </c>
+      <c r="E34">
+        <v>-0.02086178119970622</v>
+      </c>
+      <c r="F34">
+        <v>0.07629982299187507</v>
+      </c>
+      <c r="G34">
+        <v>-0.007945568031138814</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.008073968022001207</v>
+        <v>0.01530684262385453</v>
       </c>
       <c r="C36">
-        <v>0.01231834543171984</v>
+        <v>-0.01027944248117849</v>
       </c>
       <c r="D36">
-        <v>-0.0001996448160111767</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02365791661317563</v>
+      </c>
+      <c r="E36">
+        <v>0.01145892406965208</v>
+      </c>
+      <c r="F36">
+        <v>0.09234352705835154</v>
+      </c>
+      <c r="G36">
+        <v>-0.009552082294402148</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.03547057898701843</v>
+        <v>0.02796138592398631</v>
       </c>
       <c r="C38">
-        <v>0.02648775956718142</v>
+        <v>-0.02339114552694013</v>
       </c>
       <c r="D38">
-        <v>0.00402342960577291</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02555693057445059</v>
+      </c>
+      <c r="E38">
+        <v>0.01293768340486828</v>
+      </c>
+      <c r="F38">
+        <v>0.08264675504579162</v>
+      </c>
+      <c r="G38">
+        <v>-0.00823792136563266</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.04133079646666691</v>
+        <v>0.03941548195139982</v>
       </c>
       <c r="C39">
-        <v>0.07267491833353634</v>
+        <v>-0.06590574623865027</v>
       </c>
       <c r="D39">
-        <v>-0.01075554061603031</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.04672692083160811</v>
+      </c>
+      <c r="E39">
+        <v>-0.009508407686467098</v>
+      </c>
+      <c r="F39">
+        <v>0.0956971636819054</v>
+      </c>
+      <c r="G39">
+        <v>0.01853165180608855</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01772694311649066</v>
+        <v>0.01815866400704984</v>
       </c>
       <c r="C40">
-        <v>0.02693954927449837</v>
+        <v>-0.03751187228618071</v>
       </c>
       <c r="D40">
-        <v>-0.02584501450451623</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03817696579884045</v>
+      </c>
+      <c r="E40">
+        <v>0.03358370245634135</v>
+      </c>
+      <c r="F40">
+        <v>0.1125001809769343</v>
+      </c>
+      <c r="G40">
+        <v>-0.04966161213643336</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.009723444344328164</v>
+        <v>0.01810197677556256</v>
       </c>
       <c r="C41">
-        <v>0.00353349852038841</v>
+        <v>-0.003221689480259399</v>
       </c>
       <c r="D41">
-        <v>0.005600684465883559</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.0178184407487142</v>
+      </c>
+      <c r="E41">
+        <v>0.01693369999647059</v>
+      </c>
+      <c r="F41">
+        <v>0.08248631066426268</v>
+      </c>
+      <c r="G41">
+        <v>-0.002499475315758049</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.008348190900139914</v>
+        <v>0.004839301398145411</v>
       </c>
       <c r="C42">
-        <v>0.02120412202550155</v>
+        <v>-0.01113203768958026</v>
       </c>
       <c r="D42">
-        <v>-0.01346280511735594</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.007735381709129575</v>
+      </c>
+      <c r="E42">
+        <v>0.005857670175670436</v>
+      </c>
+      <c r="F42">
+        <v>-0.01331365998256344</v>
+      </c>
+      <c r="G42">
+        <v>-0.01350724141466452</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.03045314235499502</v>
+        <v>0.03113874342571519</v>
       </c>
       <c r="C43">
-        <v>0.01744984096905496</v>
+        <v>-0.01678629976342412</v>
       </c>
       <c r="D43">
-        <v>0.0002830977177889311</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.03869343178674143</v>
+      </c>
+      <c r="E43">
+        <v>0.01243490946668256</v>
+      </c>
+      <c r="F43">
+        <v>0.1022745429482964</v>
+      </c>
+      <c r="G43">
+        <v>-0.02440513676196546</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.02160451489610745</v>
+        <v>0.01664104417812948</v>
       </c>
       <c r="C44">
-        <v>0.05553237174939481</v>
+        <v>-0.05307757219569147</v>
       </c>
       <c r="D44">
-        <v>-0.01102110688573215</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.04291915828931506</v>
+      </c>
+      <c r="E44">
+        <v>0.02585768174786676</v>
+      </c>
+      <c r="F44">
+        <v>0.1122115999029589</v>
+      </c>
+      <c r="G44">
+        <v>0.002966313862692646</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.001898049175503869</v>
+        <v>0.00994846536970068</v>
       </c>
       <c r="C46">
-        <v>0.01877033851888682</v>
+        <v>-0.01890484541401101</v>
       </c>
       <c r="D46">
-        <v>0.01072192822624212</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01029952155412834</v>
+      </c>
+      <c r="E46">
+        <v>0.01611649595877968</v>
+      </c>
+      <c r="F46">
+        <v>0.1070076125576289</v>
+      </c>
+      <c r="G46">
+        <v>0.003118533379925568</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.07754628264116663</v>
+        <v>0.08838504055202853</v>
       </c>
       <c r="C47">
-        <v>0.07289418495159448</v>
+        <v>-0.07558647317729202</v>
       </c>
       <c r="D47">
-        <v>-0.000219552663924516</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.005357993386678537</v>
+      </c>
+      <c r="E47">
+        <v>0.04191645241401272</v>
+      </c>
+      <c r="F47">
+        <v>0.08924368434344535</v>
+      </c>
+      <c r="G47">
+        <v>-0.04353189718568432</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.01702008985312943</v>
+        <v>0.01670177577323852</v>
       </c>
       <c r="C48">
-        <v>0.01289020434134799</v>
+        <v>-0.01587364817324139</v>
       </c>
       <c r="D48">
-        <v>0.003903574350146843</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01679617361143324</v>
+      </c>
+      <c r="E48">
+        <v>0.02189615974484374</v>
+      </c>
+      <c r="F48">
+        <v>0.105563034020409</v>
+      </c>
+      <c r="G48">
+        <v>-0.005419197818366642</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08623722590910228</v>
+        <v>0.07429305979351011</v>
       </c>
       <c r="C50">
-        <v>0.07054724976806855</v>
+        <v>-0.06770817439136817</v>
       </c>
       <c r="D50">
-        <v>0.01518090054660773</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.002606765359763038</v>
+      </c>
+      <c r="E50">
+        <v>0.03376248062747172</v>
+      </c>
+      <c r="F50">
+        <v>0.08373232504516596</v>
+      </c>
+      <c r="G50">
+        <v>-0.07367462562108447</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01226442389243355</v>
+        <v>0.01074868335092521</v>
       </c>
       <c r="C51">
-        <v>0.0460650645434981</v>
+        <v>-0.03428278847081576</v>
       </c>
       <c r="D51">
-        <v>-0.002468357429950515</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.04584141707648493</v>
+      </c>
+      <c r="E51">
+        <v>-0.004587841308718229</v>
+      </c>
+      <c r="F51">
+        <v>0.09408719562131072</v>
+      </c>
+      <c r="G51">
+        <v>0.01681221326314307</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.09491817237867521</v>
+        <v>0.09230168942707376</v>
       </c>
       <c r="C53">
-        <v>0.07486079379259909</v>
+        <v>-0.08636512758358869</v>
       </c>
       <c r="D53">
-        <v>0.02500039450915991</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.02971862536705604</v>
+      </c>
+      <c r="E53">
+        <v>0.04653785894171011</v>
+      </c>
+      <c r="F53">
+        <v>0.09359254434012206</v>
+      </c>
+      <c r="G53">
+        <v>-0.05068937947332313</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.02832546046920664</v>
+        <v>0.03004048451564199</v>
       </c>
       <c r="C54">
-        <v>0.01396384137126269</v>
+        <v>-0.02401899310858904</v>
       </c>
       <c r="D54">
-        <v>-0.004351596773590351</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03275904773806804</v>
+      </c>
+      <c r="E54">
+        <v>0.008413865741595758</v>
+      </c>
+      <c r="F54">
+        <v>0.1043293642799525</v>
+      </c>
+      <c r="G54">
+        <v>-0.002283214474678813</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.07335102941432815</v>
+        <v>0.08435496062208059</v>
       </c>
       <c r="C55">
-        <v>0.06774458393051239</v>
+        <v>-0.06785678742291991</v>
       </c>
       <c r="D55">
-        <v>0.02258368296262296</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.0377790585774063</v>
+      </c>
+      <c r="E55">
+        <v>0.0464136745218681</v>
+      </c>
+      <c r="F55">
+        <v>0.06392022563339583</v>
+      </c>
+      <c r="G55">
+        <v>-0.04304500446408062</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1509435677022823</v>
+        <v>0.1463427159450579</v>
       </c>
       <c r="C56">
-        <v>0.09176069263715916</v>
+        <v>-0.1002921296778744</v>
       </c>
       <c r="D56">
-        <v>0.01696514057043193</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.03835275991935001</v>
+      </c>
+      <c r="E56">
+        <v>0.05182203094547948</v>
+      </c>
+      <c r="F56">
+        <v>0.05757953067561747</v>
+      </c>
+      <c r="G56">
+        <v>-0.05079394951982059</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.006280526618606602</v>
+        <v>0.002786282146249186</v>
       </c>
       <c r="C57">
-        <v>0.001224078283842823</v>
+        <v>-0.0004404468420342646</v>
       </c>
       <c r="D57">
-        <v>-0.02989777199409937</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.02192208067330662</v>
+      </c>
+      <c r="E57">
+        <v>0.01068827892249311</v>
+      </c>
+      <c r="F57">
+        <v>0.01186180052329185</v>
+      </c>
+      <c r="G57">
+        <v>0.0001304936263602443</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.06598507609626753</v>
+        <v>0.03864602984099066</v>
       </c>
       <c r="C58">
-        <v>0.04768645401822884</v>
+        <v>-0.02861323385869616</v>
       </c>
       <c r="D58">
-        <v>-0.9707057522687922</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.6609297793555193</v>
+      </c>
+      <c r="E58">
+        <v>0.6384027069267634</v>
+      </c>
+      <c r="F58">
+        <v>-0.3260159461747633</v>
+      </c>
+      <c r="G58">
+        <v>0.01010171233065305</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1341516548208884</v>
+        <v>0.143323843421898</v>
       </c>
       <c r="C59">
-        <v>-0.2049550067794474</v>
+        <v>0.1959187231989649</v>
       </c>
       <c r="D59">
-        <v>-0.01808014482492553</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.02718221158528843</v>
+      </c>
+      <c r="E59">
+        <v>0.0107837155963125</v>
+      </c>
+      <c r="F59">
+        <v>0.02795954419670005</v>
+      </c>
+      <c r="G59">
+        <v>0.03047612230636098</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3154762910689404</v>
+        <v>0.286326147797847</v>
       </c>
       <c r="C60">
-        <v>0.08361470552209591</v>
+        <v>-0.08777123220581758</v>
       </c>
       <c r="D60">
-        <v>0.01427749196980144</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.1560222667014715</v>
+      </c>
+      <c r="E60">
+        <v>-0.2957262957332498</v>
+      </c>
+      <c r="F60">
+        <v>-0.1552285780735075</v>
+      </c>
+      <c r="G60">
+        <v>-0.04791072968396684</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.03666280885963784</v>
+        <v>0.04149080718590985</v>
       </c>
       <c r="C61">
-        <v>0.06002121225972572</v>
+        <v>-0.05961231824097186</v>
       </c>
       <c r="D61">
-        <v>-0.01019117206120969</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04305892749588693</v>
+      </c>
+      <c r="E61">
+        <v>-0.003126566991902906</v>
+      </c>
+      <c r="F61">
+        <v>0.0875189366014467</v>
+      </c>
+      <c r="G61">
+        <v>-0.0105629609044234</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01514041737510212</v>
+        <v>0.01682178303315543</v>
       </c>
       <c r="C63">
-        <v>0.03237069439333806</v>
+        <v>-0.02998972465535175</v>
       </c>
       <c r="D63">
-        <v>0.009878409472623546</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.01794011065128988</v>
+      </c>
+      <c r="E63">
+        <v>0.0128944242116832</v>
+      </c>
+      <c r="F63">
+        <v>0.08686100088538259</v>
+      </c>
+      <c r="G63">
+        <v>-0.02682283848269121</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.04870444918681908</v>
+        <v>0.05490351632768695</v>
       </c>
       <c r="C64">
-        <v>0.02609676434339317</v>
+        <v>-0.04712981949368507</v>
       </c>
       <c r="D64">
-        <v>0.01326195135164257</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.009930311795431626</v>
+      </c>
+      <c r="E64">
+        <v>0.0003031825275946524</v>
+      </c>
+      <c r="F64">
+        <v>0.09626006592848911</v>
+      </c>
+      <c r="G64">
+        <v>0.000723393239822399</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.09065267520549543</v>
+        <v>0.06916597058601791</v>
       </c>
       <c r="C65">
-        <v>0.05343606136002782</v>
+        <v>-0.03886018228427893</v>
       </c>
       <c r="D65">
-        <v>-0.007667139355293179</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.07482309044782103</v>
+      </c>
+      <c r="E65">
+        <v>-0.006721047464478615</v>
+      </c>
+      <c r="F65">
+        <v>0.04171913841742356</v>
+      </c>
+      <c r="G65">
+        <v>-0.001609922433681504</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06569923190263231</v>
+        <v>0.05333071407412217</v>
       </c>
       <c r="C66">
-        <v>0.1085327028444804</v>
+        <v>-0.08991167043583997</v>
       </c>
       <c r="D66">
-        <v>-0.01378765374234798</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.07215626500087251</v>
+      </c>
+      <c r="E66">
+        <v>-0.0133759096727736</v>
+      </c>
+      <c r="F66">
+        <v>0.1000039148061607</v>
+      </c>
+      <c r="G66">
+        <v>-0.0003624221222674265</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.06047501930863251</v>
+        <v>0.05046538733451485</v>
       </c>
       <c r="C67">
-        <v>0.03227080496384128</v>
+        <v>-0.02866075748356616</v>
       </c>
       <c r="D67">
-        <v>0.01014984252478828</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.01194371494413483</v>
+      </c>
+      <c r="E67">
+        <v>0.00460518894055184</v>
+      </c>
+      <c r="F67">
+        <v>0.06643017954688286</v>
+      </c>
+      <c r="G67">
+        <v>-0.01199395883785801</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1201001110584365</v>
+        <v>0.1475122140608756</v>
       </c>
       <c r="C68">
-        <v>-0.2931779224609672</v>
+        <v>0.2646318070251932</v>
       </c>
       <c r="D68">
-        <v>-0.01988977313035961</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.01548399537981125</v>
+      </c>
+      <c r="E68">
+        <v>0.04332550023766978</v>
+      </c>
+      <c r="F68">
+        <v>0.02273690849377059</v>
+      </c>
+      <c r="G68">
+        <v>-0.005487820845308278</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.08649364080848995</v>
+        <v>0.08808345847229936</v>
       </c>
       <c r="C69">
-        <v>0.06804360936646363</v>
+        <v>-0.08157536548269756</v>
       </c>
       <c r="D69">
-        <v>0.02876971537048367</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.008819194212977225</v>
+      </c>
+      <c r="E69">
+        <v>0.01321692099680886</v>
+      </c>
+      <c r="F69">
+        <v>0.09808122123557278</v>
+      </c>
+      <c r="G69">
+        <v>-0.01731963491609161</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1208924040709261</v>
+        <v>0.1366675801837784</v>
       </c>
       <c r="C71">
-        <v>-0.2423841503246599</v>
+        <v>0.2390971804535162</v>
       </c>
       <c r="D71">
-        <v>-0.0236081112784127</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.01815244629841219</v>
+      </c>
+      <c r="E71">
+        <v>0.04446217784776179</v>
+      </c>
+      <c r="F71">
+        <v>0.06814187004382979</v>
+      </c>
+      <c r="G71">
+        <v>-0.02736697350670676</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.08051486814301483</v>
+        <v>0.08993772016019559</v>
       </c>
       <c r="C72">
-        <v>0.05209516541445305</v>
+        <v>-0.05310597484433693</v>
       </c>
       <c r="D72">
-        <v>0.04128295827704537</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.006472130104857666</v>
+      </c>
+      <c r="E72">
+        <v>-0.01880165644611267</v>
+      </c>
+      <c r="F72">
+        <v>0.08326089385746038</v>
+      </c>
+      <c r="G72">
+        <v>-0.02155333430715666</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.4442487706886908</v>
+        <v>0.3563712391165808</v>
       </c>
       <c r="C73">
-        <v>0.07147896849676118</v>
+        <v>-0.0626526493206483</v>
       </c>
       <c r="D73">
-        <v>-0.006158561491499228</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.3311318103445784</v>
+      </c>
+      <c r="E73">
+        <v>-0.5236733270843706</v>
+      </c>
+      <c r="F73">
+        <v>-0.3407501672794621</v>
+      </c>
+      <c r="G73">
+        <v>-0.1070855483901445</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1180608921340014</v>
+        <v>0.1135021854572415</v>
       </c>
       <c r="C74">
-        <v>0.1154010035678093</v>
+        <v>-0.1007847080429992</v>
       </c>
       <c r="D74">
-        <v>0.01892157574603478</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.01559645521494857</v>
+      </c>
+      <c r="E74">
+        <v>0.06325650997134907</v>
+      </c>
+      <c r="F74">
+        <v>0.07434621049473628</v>
+      </c>
+      <c r="G74">
+        <v>-0.06726035222007988</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.260615437669047</v>
+        <v>0.2570015553060276</v>
       </c>
       <c r="C75">
-        <v>0.123576394008552</v>
+        <v>-0.1367723163282763</v>
       </c>
       <c r="D75">
-        <v>0.03255518177597951</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1004592703739851</v>
+      </c>
+      <c r="E75">
+        <v>0.11754505089204</v>
+      </c>
+      <c r="F75">
+        <v>0.02619937936220371</v>
+      </c>
+      <c r="G75">
+        <v>-0.0646456303279923</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1173818987178313</v>
+        <v>0.1297315526429622</v>
       </c>
       <c r="C76">
-        <v>0.1050040806013337</v>
+        <v>-0.1042022940061294</v>
       </c>
       <c r="D76">
-        <v>0.02902413294951921</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.04336168970298238</v>
+      </c>
+      <c r="E76">
+        <v>0.07842209306337196</v>
+      </c>
+      <c r="F76">
+        <v>0.07584776580861441</v>
+      </c>
+      <c r="G76">
+        <v>-0.0535413202931147</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.07270267755207842</v>
+        <v>0.06733519119375535</v>
       </c>
       <c r="C77">
-        <v>0.05454818614244512</v>
+        <v>-0.06250664415345276</v>
       </c>
       <c r="D77">
-        <v>-0.03520281362267835</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.06184337560614483</v>
+      </c>
+      <c r="E77">
+        <v>0.0356282515383935</v>
+      </c>
+      <c r="F77">
+        <v>0.1163827877130107</v>
+      </c>
+      <c r="G77">
+        <v>0.1309957222863205</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04545707255479059</v>
+        <v>0.0425005308523513</v>
       </c>
       <c r="C78">
-        <v>0.0439710591168127</v>
+        <v>-0.05266469244517551</v>
       </c>
       <c r="D78">
-        <v>-0.007387807001167942</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.06267989487117311</v>
+      </c>
+      <c r="E78">
+        <v>-0.01984896572503836</v>
+      </c>
+      <c r="F78">
+        <v>0.1013790615943778</v>
+      </c>
+      <c r="G78">
+        <v>-0.004506477142948371</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.01102317029760266</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>-0.03387647717971332</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.03578013678547233</v>
+      </c>
+      <c r="E79">
+        <v>0.04055213584758334</v>
+      </c>
+      <c r="F79">
+        <v>0.02476649705016547</v>
+      </c>
+      <c r="G79">
+        <v>-0.03910526198424369</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.05272241130900523</v>
+        <v>0.04027895091636662</v>
       </c>
       <c r="C80">
-        <v>0.04948426054747375</v>
+        <v>-0.04312446356332454</v>
       </c>
       <c r="D80">
-        <v>-0.02433266158180568</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.04549577627035838</v>
+      </c>
+      <c r="E80">
+        <v>0.0008139561788252409</v>
+      </c>
+      <c r="F80">
+        <v>0.04186696081727571</v>
+      </c>
+      <c r="G80">
+        <v>0.04393186253820146</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1369574849633984</v>
+        <v>0.1416653450973401</v>
       </c>
       <c r="C81">
-        <v>0.08141114217472693</v>
+        <v>-0.09446982547121258</v>
       </c>
       <c r="D81">
-        <v>0.01922584631711213</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.07142562614169694</v>
+      </c>
+      <c r="E81">
+        <v>0.09651000138593893</v>
+      </c>
+      <c r="F81">
+        <v>0.03612829842713743</v>
+      </c>
+      <c r="G81">
+        <v>-0.05445797250079583</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.06900376858281383</v>
+        <v>0.1920332846051401</v>
       </c>
       <c r="C82">
-        <v>0.04192404035565</v>
+        <v>-0.1343323170604838</v>
       </c>
       <c r="D82">
-        <v>0.02166832265716259</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2127437489430165</v>
+      </c>
+      <c r="E82">
+        <v>0.05793129395836092</v>
+      </c>
+      <c r="F82">
+        <v>0.05595009008047773</v>
+      </c>
+      <c r="G82">
+        <v>-0.01794726249622279</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.02671302232024915</v>
+        <v>0.02756698235686642</v>
       </c>
       <c r="C83">
-        <v>0.01987744538165372</v>
+        <v>-0.0360669868286317</v>
       </c>
       <c r="D83">
-        <v>-0.0169612940499137</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03324428478887792</v>
+      </c>
+      <c r="E83">
+        <v>-0.00696104397368577</v>
+      </c>
+      <c r="F83">
+        <v>0.05134816607123822</v>
+      </c>
+      <c r="G83">
+        <v>0.02608659053456587</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2435190397285684</v>
+        <v>0.2111110149781097</v>
       </c>
       <c r="C85">
-        <v>0.1199550456521631</v>
+        <v>-0.1200866155913333</v>
       </c>
       <c r="D85">
-        <v>0.1077528557158593</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1026660831960943</v>
+      </c>
+      <c r="E85">
+        <v>0.03866548149082433</v>
+      </c>
+      <c r="F85">
+        <v>-0.01872834544304634</v>
+      </c>
+      <c r="G85">
+        <v>-0.1120771255925382</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.008754201606705991</v>
+        <v>0.01346532502587385</v>
       </c>
       <c r="C86">
-        <v>0.02576556619790578</v>
+        <v>-0.03156804248240627</v>
       </c>
       <c r="D86">
-        <v>-0.02918485330303783</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.07269642837214418</v>
+      </c>
+      <c r="E86">
+        <v>0.005307001482340696</v>
+      </c>
+      <c r="F86">
+        <v>0.1536377258240468</v>
+      </c>
+      <c r="G86">
+        <v>0.01243176407100123</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.01230383271407821</v>
+        <v>0.02118774267945248</v>
       </c>
       <c r="C87">
-        <v>0.02461551719190179</v>
+        <v>-0.01803696733663625</v>
       </c>
       <c r="D87">
-        <v>-0.07937998895885696</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09843113382538503</v>
+      </c>
+      <c r="E87">
+        <v>0.04499727181187377</v>
+      </c>
+      <c r="F87">
+        <v>0.1117297137647377</v>
+      </c>
+      <c r="G87">
+        <v>0.03664165577088495</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.09964559686247892</v>
+        <v>0.08992355392313806</v>
       </c>
       <c r="C88">
-        <v>0.07558225802743188</v>
+        <v>-0.06283394294228138</v>
       </c>
       <c r="D88">
-        <v>0.01644042662051422</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.01100288108281989</v>
+      </c>
+      <c r="E88">
+        <v>0.01207828449977416</v>
+      </c>
+      <c r="F88">
+        <v>0.07737592275085231</v>
+      </c>
+      <c r="G88">
+        <v>0.03275303699239886</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1912069472231987</v>
+        <v>0.210151480629641</v>
       </c>
       <c r="C89">
-        <v>-0.3754058869258107</v>
+        <v>0.3801937256049827</v>
       </c>
       <c r="D89">
-        <v>0.02762544684675093</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.02498634229247278</v>
+      </c>
+      <c r="E89">
+        <v>0.01250283655754746</v>
+      </c>
+      <c r="F89">
+        <v>0.09752389007964021</v>
+      </c>
+      <c r="G89">
+        <v>0.07140907323508056</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1776161025417205</v>
+        <v>0.1945355001188006</v>
       </c>
       <c r="C90">
-        <v>-0.3505025426874021</v>
+        <v>0.3237972935176393</v>
       </c>
       <c r="D90">
-        <v>-0.008779921715407023</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.01446891062808635</v>
+      </c>
+      <c r="E90">
+        <v>0.05367705753950193</v>
+      </c>
+      <c r="F90">
+        <v>0.05885733468758084</v>
+      </c>
+      <c r="G90">
+        <v>0.0158257974632087</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.2009233388031591</v>
+        <v>0.1946689958590152</v>
       </c>
       <c r="C91">
-        <v>0.1146136746723096</v>
+        <v>-0.1359979261207153</v>
       </c>
       <c r="D91">
-        <v>0.03659913140465951</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.08550886303242228</v>
+      </c>
+      <c r="E91">
+        <v>0.09463766476822953</v>
+      </c>
+      <c r="F91">
+        <v>0.05188866709959553</v>
+      </c>
+      <c r="G91">
+        <v>-0.05272789432736588</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1703652282619965</v>
+        <v>0.1769943359357651</v>
       </c>
       <c r="C92">
-        <v>-0.2780058784107061</v>
+        <v>0.2825903301112853</v>
       </c>
       <c r="D92">
-        <v>-0.003036877424317682</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.001689875733688856</v>
+      </c>
+      <c r="E92">
+        <v>0.07503729967763122</v>
+      </c>
+      <c r="F92">
+        <v>0.08142863599400635</v>
+      </c>
+      <c r="G92">
+        <v>0.0173119459254117</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1952112485472698</v>
+        <v>0.2174830293501807</v>
       </c>
       <c r="C93">
-        <v>-0.3387698808791988</v>
+        <v>0.3256253259962119</v>
       </c>
       <c r="D93">
-        <v>-0.009658668179607982</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.002896940212458161</v>
+      </c>
+      <c r="E93">
+        <v>0.04403755947957103</v>
+      </c>
+      <c r="F93">
+        <v>0.0623526687108428</v>
+      </c>
+      <c r="G93">
+        <v>-0.02776742051112943</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.2785162184521949</v>
+        <v>0.3448496980536123</v>
       </c>
       <c r="C94">
-        <v>0.1452975489763133</v>
+        <v>-0.1882588627854932</v>
       </c>
       <c r="D94">
-        <v>0.0894201805306313</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4206750354128769</v>
+      </c>
+      <c r="E94">
+        <v>0.2961564688249684</v>
+      </c>
+      <c r="F94">
+        <v>-0.4185153123561717</v>
+      </c>
+      <c r="G94">
+        <v>0.2523069192253176</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.09156432265627222</v>
+        <v>0.08505587200233784</v>
       </c>
       <c r="C95">
-        <v>0.0734393061417651</v>
+        <v>-0.07330760431709542</v>
       </c>
       <c r="D95">
-        <v>-0.05213066508379485</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1294731323632567</v>
+      </c>
+      <c r="E95">
+        <v>-0.1390125139903621</v>
+      </c>
+      <c r="F95">
+        <v>0.106158253652319</v>
+      </c>
+      <c r="G95">
+        <v>0.9025074417859528</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.2113806902720763</v>
+        <v>0.193672918337038</v>
       </c>
       <c r="C98">
-        <v>0.02871597185480829</v>
+        <v>-0.03386121801163226</v>
       </c>
       <c r="D98">
-        <v>-0.03008163428048162</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1476209116942172</v>
+      </c>
+      <c r="E98">
+        <v>-0.1767936952076538</v>
+      </c>
+      <c r="F98">
+        <v>-0.0563723424789405</v>
+      </c>
+      <c r="G98">
+        <v>-0.1029153249771095</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.01060155816197767</v>
+        <v>0.007879773104958205</v>
       </c>
       <c r="C101">
-        <v>0.02547754979582143</v>
+        <v>-0.02354474174403155</v>
       </c>
       <c r="D101">
-        <v>0.01101289812499835</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01726227503105737</v>
+      </c>
+      <c r="E101">
+        <v>0.009858863108279374</v>
+      </c>
+      <c r="F101">
+        <v>0.09336183731366826</v>
+      </c>
+      <c r="G101">
+        <v>-0.001994108541325354</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1212794294152256</v>
+        <v>0.1249488061904745</v>
       </c>
       <c r="C102">
-        <v>0.07441889169286818</v>
+        <v>-0.09605398110838537</v>
       </c>
       <c r="D102">
-        <v>0.02222357432288994</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.04408111577395384</v>
+      </c>
+      <c r="E102">
+        <v>0.009759389360723535</v>
+      </c>
+      <c r="F102">
+        <v>0.02652263386644696</v>
+      </c>
+      <c r="G102">
+        <v>-0.01412843121712181</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
